--- a/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mpimp-golm\USER\HOMES\Wijesingha1055\GitHub\Swate-templates\templates\community\MPIMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{989589E3-97D9-4D72-91F0-86D583BCEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DF540-B7BE-4B47-B8CB-682CF12C0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11520" yWindow="-18200" windowWidth="21440" windowHeight="13520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolite Extraction" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -52,76 +51,203 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=6158be27-92a8-4f61-945c-0e31b7cc45cc</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -266,9 +392,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -375,6 +498,9 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -386,7 +512,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;milliliter&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +535,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1059,43 +1191,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="39" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="40" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="38.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="29" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1369,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1305,18 +1437,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1324,7 +1456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1332,188 +1464,188 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="12" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="14" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="B27" s="13"/>
     </row>

--- a/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DF540-B7BE-4B47-B8CB-682CF12C0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF915056-66CE-6647-BE6F-38D178C1DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11520" yWindow="-18200" windowWidth="21440" windowHeight="13520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24220" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolite Extraction" sheetId="2" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Source Name</t>
   </si>
@@ -366,15 +366,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_17790</t>
-  </si>
-  <si>
-    <t>Chloroform</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C29815</t>
   </si>
   <si>
     <t>Id</t>
@@ -1166,7 +1157,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="610" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1191,40 +1182,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="32.1640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="39" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="40" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="38.5" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="21.5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="29" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -1389,13 +1380,13 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3">
         <v>0.73</v>
@@ -1404,13 +1395,13 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T3" s="3">
         <v>0.25</v>
@@ -1437,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1450,202 +1441,202 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="13"/>
     </row>

--- a/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/MPIMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF915056-66CE-6647-BE6F-38D178C1DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038E7CD-BD89-4549-8BD9-C7843DD6A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24220" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolite Extraction" sheetId="2" r:id="rId1"/>
@@ -51,203 +51,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=6158be27-92a8-4f61-945c-0e31b7cc45cc</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -255,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Source Name</t>
   </si>
@@ -492,6 +365,12 @@
   </si>
   <si>
     <t>1.0.1</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -503,7 +382,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;milliliter&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,12 +405,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -687,8 +560,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -826,9 +699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +739,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -972,7 +845,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,43 +1055,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="39" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="40" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="29" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1233,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1428,18 +1301,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +1320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1455,7 +1328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1463,7 +1336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
@@ -1479,7 +1352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1487,76 +1360,73 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
@@ -1564,7 +1434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
@@ -1572,13 +1442,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>65</v>
       </c>
@@ -1586,19 +1456,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>69</v>
       </c>
@@ -1606,7 +1476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1614,7 +1484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>73</v>
       </c>
@@ -1622,19 +1492,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>77</v>
       </c>

--- a/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038E7CD-BD89-4549-8BD9-C7843DD6A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9011800-B2D2-41D6-8061-395C58DD2A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolite Extraction" sheetId="2" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_templates" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>

--- a/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
+++ b/templates/community/MPIMP/MPIMP_Fernie_Metabolite_Extraction.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9011800-B2D2-41D6-8061-395C58DD2A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097442B9-5AAE-4548-AF26-EBB0DFEB9211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolite Extraction" sheetId="2" r:id="rId1"/>
-    <sheet name="isa_templates" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
